--- a/Modeling/Data_management_copy2.xlsx
+++ b/Modeling/Data_management_copy2.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\Data_phD\Modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mylen\Documents\phD\Data_phD\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29C36E4-B8FA-4BD0-8E01-D69131BF48D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="221">
   <si>
     <t>Model name</t>
   </si>
@@ -590,13 +592,118 @@
   </si>
   <si>
     <t>4320 (3 months)</t>
+  </si>
+  <si>
+    <t>Hydraulic conductivity (m/s)</t>
+  </si>
+  <si>
+    <t>Hydraulic Head</t>
+  </si>
+  <si>
+    <t>Reservoir Temperature</t>
+  </si>
+  <si>
+    <t>Heat Flux</t>
+  </si>
+  <si>
+    <t>Geothermal gradient</t>
+  </si>
+  <si>
+    <t>Surface Temperature</t>
+  </si>
+  <si>
+    <t>Thermal diffusivity ( λ / ρc)</t>
+  </si>
+  <si>
+    <t>Simulation parameters</t>
+  </si>
+  <si>
+    <t>Total duration</t>
+  </si>
+  <si>
+    <t>Numerical solver</t>
+  </si>
+  <si>
+    <t>Hydraulic Initial and Boundary conditions</t>
+  </si>
+  <si>
+    <t>Thermal Initial and Boundary Conditions</t>
+  </si>
+  <si>
+    <t>Source terms</t>
+  </si>
+  <si>
+    <t>Injection temperature</t>
+  </si>
+  <si>
+    <t>Pumping/Injection rate</t>
+  </si>
+  <si>
+    <t>Precpitation</t>
+  </si>
+  <si>
+    <t>Infiltration</t>
+  </si>
+  <si>
+    <t>Solar Flux</t>
+  </si>
+  <si>
+    <t>Geometrical</t>
+  </si>
+  <si>
+    <t>Roadway interconnectivity</t>
+  </si>
+  <si>
+    <t>Groundwater Flow Rate / Flooding rate</t>
+  </si>
+  <si>
+    <t>Discharge rate</t>
+  </si>
+  <si>
+    <t>Geological disturbances</t>
+  </si>
+  <si>
+    <t>Seam elevation / Outcrops</t>
+  </si>
+  <si>
+    <t>Depth / Thickness / Area and Type of workings</t>
+  </si>
+  <si>
+    <t>Length / Diameter / Roughness of Shafts &amp; Roadways</t>
+  </si>
+  <si>
+    <t>Monitoring data</t>
+  </si>
+  <si>
+    <t>Temperature profile</t>
+  </si>
+  <si>
+    <t>EC profile</t>
+  </si>
+  <si>
+    <t>Water level</t>
+  </si>
+  <si>
+    <t>Flow rate</t>
+  </si>
+  <si>
+    <t>Strata type / Thickness / Dip</t>
+  </si>
+  <si>
+    <t>Geology</t>
+  </si>
+  <si>
+    <t>Group number (Medium type)</t>
+  </si>
+  <si>
+    <t>Inputs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,8 +751,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,6 +781,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,7 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -898,24 +1018,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -938,9 +1040,62 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1252,14 +1407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AT26" sqref="AT26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="8"/>
     <col min="2" max="2" width="5.88671875" style="8" bestFit="1" customWidth="1"/>
@@ -1306,16 +1461,16 @@
       <c r="P1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="37"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="57"/>
       <c r="AL1" s="8" t="s">
         <v>16</v>
       </c>
@@ -1336,51 +1491,51 @@
       <c r="A2" s="16"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="39" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="39" t="s">
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="39" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="41"/>
-      <c r="U2" s="36" t="s">
+      <c r="T2" s="54"/>
+      <c r="U2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38" t="s">
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="38" t="s">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="36" t="s">
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="37"/>
+      <c r="AF2" s="57"/>
       <c r="AG2" s="25"/>
       <c r="AH2" s="25" t="s">
         <v>119</v>
@@ -1415,11 +1570,11 @@
       <c r="AR2" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="AS2" s="36" t="s">
+      <c r="AS2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="37"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="57"/>
     </row>
     <row r="3" spans="1:48" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
@@ -1524,7 +1679,7 @@
       <c r="AH3" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="AI3" s="42" t="s">
+      <c r="AI3" s="36" t="s">
         <v>96</v>
       </c>
       <c r="AJ3" s="24" t="s">
@@ -1536,7 +1691,7 @@
       <c r="AL3" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AM3" s="43" t="s">
+      <c r="AM3" s="37" t="s">
         <v>147</v>
       </c>
       <c r="AN3" s="22" t="s">
@@ -2376,7 +2531,7 @@
       <c r="I17" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="44" t="s">
+      <c r="J17" s="38" t="s">
         <v>65</v>
       </c>
       <c r="K17" s="29">
@@ -2490,7 +2645,7 @@
       <c r="I18" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="38" t="s">
         <v>65</v>
       </c>
       <c r="K18" s="29">
@@ -2568,7 +2723,7 @@
       <c r="I19" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="38" t="s">
         <v>65</v>
       </c>
       <c r="K19" s="29">
@@ -2646,7 +2801,7 @@
       <c r="I20" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="38" t="s">
         <v>67</v>
       </c>
       <c r="K20" s="29">
@@ -2658,7 +2813,7 @@
       <c r="M20" s="31">
         <v>0</v>
       </c>
-      <c r="N20" s="45">
+      <c r="N20" s="39">
         <v>1500</v>
       </c>
       <c r="O20" s="29"/>
@@ -2715,7 +2870,7 @@
       <c r="G21" s="32">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="40">
         <v>0.01</v>
       </c>
       <c r="I21" s="31" t="s">
@@ -2733,7 +2888,7 @@
       <c r="M21" s="31">
         <v>0</v>
       </c>
-      <c r="N21" s="45">
+      <c r="N21" s="39">
         <v>1500</v>
       </c>
       <c r="O21" s="29"/>
@@ -3286,6 +3441,9 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="U1:AB1"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="D2:J2"/>
@@ -3293,9 +3451,6 @@
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="U1:AB1"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Y2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3303,14 +3458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -3588,30 +3743,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
-    <hyperlink ref="A14" r:id="rId5"/>
-    <hyperlink ref="A15" r:id="rId6"/>
-    <hyperlink ref="A20" r:id="rId7"/>
-    <hyperlink ref="A21" r:id="rId8"/>
-    <hyperlink ref="E8" r:id="rId9"/>
-    <hyperlink ref="E9" r:id="rId10"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A14" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A15" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A20" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A21" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="E8" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="E9" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
@@ -3713,11 +3868,11 @@
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
@@ -3732,7 +3887,7 @@
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="44">
         <v>0.25</v>
       </c>
       <c r="C13" s="1"/>
@@ -3743,7 +3898,7 @@
       <c r="A14" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="50">
+      <c r="B14" s="44">
         <v>1E-4</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3770,7 +3925,7 @@
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="45">
         <f>B14/B15</f>
         <v>5.0000000000000002E-5</v>
       </c>
@@ -3781,10 +3936,10 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="45">
         <f>B16/B13</f>
         <v>2.0000000000000001E-4</v>
       </c>
@@ -3793,7 +3948,7 @@
       <c r="A18" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B18" s="44">
         <f>30*60</f>
         <v>1800</v>
       </c>
@@ -3807,7 +3962,7 @@
       <c r="A19" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B19" s="56">
+      <c r="B19" s="50">
         <f>2/1.5</f>
         <v>1.3333333333333333</v>
       </c>
@@ -3821,7 +3976,7 @@
       <c r="A20" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B20" s="55">
+      <c r="B20" s="49">
         <f>(1-Feuil1!E20)*(Feuil1!K20/(Feuil1!L20*Feuil1!N20))+Feuil1!E20*(Feuil1!R17/(Feuil1!O17*Feuil1!Q17))</f>
         <v>1.443701226309922E-7</v>
       </c>
@@ -3848,7 +4003,7 @@
       <c r="A22" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="56">
+      <c r="B22" s="50">
         <f>B19*B19/2</f>
         <v>0.88888888888888884</v>
       </c>
@@ -3862,7 +4017,7 @@
       <c r="A23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="57">
+      <c r="B23" s="51">
         <f>B22*B13</f>
         <v>0.22222222222222221</v>
       </c>
@@ -3876,7 +4031,7 @@
       <c r="A24" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="46">
         <f>B14*B18</f>
         <v>0.18000000000000002</v>
       </c>
@@ -3901,7 +4056,7 @@
         <f>B16*B18/B19</f>
         <v>6.7500000000000018E-2</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="47" t="s">
         <v>171</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3917,7 +4072,7 @@
         <f>B20*B18/(B19*B19)</f>
         <v>1.4617474916387961E-4</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="47" t="s">
         <v>173</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3959,4 +4114,283 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21F8B75-A8DC-43D2-8BF0-122195B0B696}">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="63"/>
+      <c r="B3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="64"/>
+      <c r="H3" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="63"/>
+      <c r="B4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="70"/>
+      <c r="H4" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="63"/>
+      <c r="B5" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="63"/>
+      <c r="B6" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="63"/>
+      <c r="B7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="69"/>
+      <c r="E7" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="64"/>
+      <c r="H7" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="63"/>
+      <c r="B8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="70"/>
+      <c r="H8" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="64"/>
+      <c r="B10" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="64"/>
+      <c r="B11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="64"/>
+      <c r="B12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" s="64"/>
+      <c r="H12" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="65"/>
+      <c r="B13" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="70"/>
+      <c r="H13" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="68"/>
+      <c r="E14" s="59" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="63"/>
+      <c r="B15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="68"/>
+      <c r="E15" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="63"/>
+      <c r="B16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="68"/>
+      <c r="E16" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" s="66"/>
+      <c r="H16" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="66"/>
+      <c r="B17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="66"/>
+      <c r="H17" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>